--- a/file/downloadExcel/faculties.xlsx
+++ b/file/downloadExcel/faculties.xlsx
@@ -24,7 +24,7 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>1</t>
+    <t>f630801d-ea5c-43a9-9012-aa29bca560f4</t>
   </si>
   <si>
     <t>Accounting</t>
